--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.94218233333334</v>
+        <v>33.64214033333334</v>
       </c>
       <c r="H2">
-        <v>74.82654700000001</v>
+        <v>100.926421</v>
       </c>
       <c r="I2">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="J2">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.187039</v>
+        <v>1.429146333333333</v>
       </c>
       <c r="N2">
-        <v>0.5611170000000001</v>
+        <v>4.287439</v>
       </c>
       <c r="O2">
-        <v>0.3136962767375905</v>
+        <v>0.82551891942994</v>
       </c>
       <c r="P2">
-        <v>0.3136962767375905</v>
+        <v>0.8255189194299399</v>
       </c>
       <c r="Q2">
-        <v>4.665160841444335</v>
+        <v>48.07954150286879</v>
       </c>
       <c r="R2">
-        <v>41.98644757299901</v>
+        <v>432.715873525819</v>
       </c>
       <c r="S2">
-        <v>0.01981888254290375</v>
+        <v>0.08832655503381923</v>
       </c>
       <c r="T2">
-        <v>0.01981888254290375</v>
+        <v>0.0883265550338192</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.94218233333334</v>
+        <v>33.64214033333334</v>
       </c>
       <c r="H3">
-        <v>74.82654700000001</v>
+        <v>100.926421</v>
       </c>
       <c r="I3">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="J3">
-        <v>0.06317857116130968</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.4092033333333334</v>
+        <v>0.03271033333333333</v>
       </c>
       <c r="N3">
-        <v>1.22761</v>
+        <v>0.098131</v>
       </c>
       <c r="O3">
-        <v>0.6863037232624095</v>
+        <v>0.01889449554444493</v>
       </c>
       <c r="P3">
-        <v>0.6863037232624095</v>
+        <v>0.01889449554444493</v>
       </c>
       <c r="Q3">
-        <v>10.20642415140778</v>
+        <v>1.100445624350111</v>
       </c>
       <c r="R3">
-        <v>91.85781736267002</v>
+        <v>9.904010619151</v>
       </c>
       <c r="S3">
-        <v>0.04335968861840592</v>
+        <v>0.002021620172793995</v>
       </c>
       <c r="T3">
-        <v>0.04335968861840592</v>
+        <v>0.002021620172793994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>242.358393</v>
+        <v>33.64214033333334</v>
       </c>
       <c r="H4">
-        <v>727.075179</v>
+        <v>100.926421</v>
       </c>
       <c r="I4">
-        <v>0.6138940359772779</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="J4">
-        <v>0.6138940359772779</v>
+        <v>0.106995191696894</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.187039</v>
+        <v>0.269353</v>
       </c>
       <c r="N4">
-        <v>0.5611170000000001</v>
+        <v>0.8080590000000001</v>
       </c>
       <c r="O4">
-        <v>0.3136962767375905</v>
+        <v>0.155586585025615</v>
       </c>
       <c r="P4">
-        <v>0.3136962767375905</v>
+        <v>0.155586585025615</v>
       </c>
       <c r="Q4">
-        <v>45.33047146832701</v>
+        <v>9.061611425204335</v>
       </c>
       <c r="R4">
-        <v>407.9742432149431</v>
+        <v>81.55450282683901</v>
       </c>
       <c r="S4">
-        <v>0.1925762733974845</v>
+        <v>0.01664701649028078</v>
       </c>
       <c r="T4">
-        <v>0.1925762733974845</v>
+        <v>0.01664701649028077</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,48 +729,48 @@
         <v>242.358393</v>
       </c>
       <c r="H5">
-        <v>727.075179</v>
+        <v>727.0751789999999</v>
       </c>
       <c r="I5">
-        <v>0.6138940359772779</v>
+        <v>0.7707946777896593</v>
       </c>
       <c r="J5">
-        <v>0.6138940359772779</v>
+        <v>0.7707946777896592</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4092033333333334</v>
+        <v>1.429146333333333</v>
       </c>
       <c r="N5">
-        <v>1.22761</v>
+        <v>4.287439</v>
       </c>
       <c r="O5">
-        <v>0.6863037232624095</v>
+        <v>0.82551891942994</v>
       </c>
       <c r="P5">
-        <v>0.6863037232624095</v>
+        <v>0.8255189194299399</v>
       </c>
       <c r="Q5">
-        <v>99.17386227691001</v>
+        <v>346.365608708509</v>
       </c>
       <c r="R5">
-        <v>892.5647604921901</v>
+        <v>3117.290478376581</v>
       </c>
       <c r="S5">
-        <v>0.4213177625797934</v>
+        <v>0.6363055895112684</v>
       </c>
       <c r="T5">
-        <v>0.4213177625797934</v>
+        <v>0.6363055895112681</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.60464166666667</v>
+        <v>242.358393</v>
       </c>
       <c r="H6">
-        <v>169.813925</v>
+        <v>727.0751789999999</v>
       </c>
       <c r="I6">
-        <v>0.1433796102443937</v>
+        <v>0.7707946777896593</v>
       </c>
       <c r="J6">
-        <v>0.1433796102443937</v>
+        <v>0.7707946777896592</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.187039</v>
+        <v>0.03271033333333333</v>
       </c>
       <c r="N6">
-        <v>0.5611170000000001</v>
+        <v>0.098131</v>
       </c>
       <c r="O6">
-        <v>0.3136962767375905</v>
+        <v>0.01889449554444493</v>
       </c>
       <c r="P6">
-        <v>0.3136962767375905</v>
+        <v>0.01889449554444493</v>
       </c>
       <c r="Q6">
-        <v>10.58727557269167</v>
+        <v>7.927623821160999</v>
       </c>
       <c r="R6">
-        <v>95.28548015422503</v>
+        <v>71.34861439044899</v>
       </c>
       <c r="S6">
-        <v>0.04497764989375318</v>
+        <v>0.01456377660517859</v>
       </c>
       <c r="T6">
-        <v>0.04497764989375318</v>
+        <v>0.01456377660517858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.60464166666667</v>
+        <v>242.358393</v>
       </c>
       <c r="H7">
-        <v>169.813925</v>
+        <v>727.0751789999999</v>
       </c>
       <c r="I7">
-        <v>0.1433796102443937</v>
+        <v>0.7707946777896593</v>
       </c>
       <c r="J7">
-        <v>0.1433796102443937</v>
+        <v>0.7707946777896592</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,33 +868,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4092033333333334</v>
+        <v>0.269353</v>
       </c>
       <c r="N7">
-        <v>1.22761</v>
+        <v>0.8080590000000001</v>
       </c>
       <c r="O7">
-        <v>0.6863037232624095</v>
+        <v>0.155586585025615</v>
       </c>
       <c r="P7">
-        <v>0.6863037232624095</v>
+        <v>0.155586585025615</v>
       </c>
       <c r="Q7">
-        <v>23.16280805213889</v>
+        <v>65.279960229729</v>
       </c>
       <c r="R7">
-        <v>208.46527246925</v>
+        <v>587.519642067561</v>
       </c>
       <c r="S7">
-        <v>0.0984019603506405</v>
+        <v>0.1199253116732124</v>
       </c>
       <c r="T7">
-        <v>0.09840196035064049</v>
+        <v>0.1199253116732124</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.84458233333333</v>
+        <v>9.788214000000002</v>
       </c>
       <c r="H8">
-        <v>47.533747</v>
+        <v>29.364642</v>
       </c>
       <c r="I8">
-        <v>0.04013434185868808</v>
+        <v>0.0311303568359039</v>
       </c>
       <c r="J8">
-        <v>0.04013434185868807</v>
+        <v>0.03113035683590389</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.187039</v>
+        <v>1.429146333333333</v>
       </c>
       <c r="N8">
-        <v>0.5611170000000001</v>
+        <v>4.287439</v>
       </c>
       <c r="O8">
-        <v>0.3136962767375905</v>
+        <v>0.82551891942994</v>
       </c>
       <c r="P8">
-        <v>0.3136962767375905</v>
+        <v>0.8255189194299399</v>
       </c>
       <c r="Q8">
-        <v>2.963554835044334</v>
+        <v>13.988790147982</v>
       </c>
       <c r="R8">
-        <v>26.671993515399</v>
+        <v>125.899111331838</v>
       </c>
       <c r="S8">
-        <v>0.01258999361038408</v>
+        <v>0.02569869853664384</v>
       </c>
       <c r="T8">
-        <v>0.01258999361038407</v>
+        <v>0.02569869853664383</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.84458233333333</v>
+        <v>9.788214000000002</v>
       </c>
       <c r="H9">
-        <v>47.533747</v>
+        <v>29.364642</v>
       </c>
       <c r="I9">
-        <v>0.04013434185868808</v>
+        <v>0.0311303568359039</v>
       </c>
       <c r="J9">
-        <v>0.04013434185868807</v>
+        <v>0.03113035683590389</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.4092033333333334</v>
+        <v>0.03271033333333333</v>
       </c>
       <c r="N9">
-        <v>1.22761</v>
+        <v>0.098131</v>
       </c>
       <c r="O9">
-        <v>0.6863037232624095</v>
+        <v>0.01889449554444493</v>
       </c>
       <c r="P9">
-        <v>0.6863037232624095</v>
+        <v>0.01889449554444493</v>
       </c>
       <c r="Q9">
-        <v>6.483655906074445</v>
+        <v>0.3201757426780001</v>
       </c>
       <c r="R9">
-        <v>58.35290315467</v>
+        <v>2.881581684102</v>
       </c>
       <c r="S9">
-        <v>0.027544348248304</v>
+        <v>0.0005881923885329672</v>
       </c>
       <c r="T9">
-        <v>0.027544348248304</v>
+        <v>0.0005881923885329669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.03884300000001</v>
+        <v>9.788214000000002</v>
       </c>
       <c r="H10">
-        <v>165.116529</v>
+        <v>29.364642</v>
       </c>
       <c r="I10">
-        <v>0.1394134407583308</v>
+        <v>0.0311303568359039</v>
       </c>
       <c r="J10">
-        <v>0.1394134407583308</v>
+        <v>0.03113035683590389</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.187039</v>
+        <v>0.269353</v>
       </c>
       <c r="N10">
-        <v>0.5611170000000001</v>
+        <v>0.8080590000000001</v>
       </c>
       <c r="O10">
-        <v>0.3136962767375905</v>
+        <v>0.155586585025615</v>
       </c>
       <c r="P10">
-        <v>0.3136962767375905</v>
+        <v>0.155586585025615</v>
       </c>
       <c r="Q10">
-        <v>10.294410155877</v>
+        <v>2.636484805542</v>
       </c>
       <c r="R10">
-        <v>92.64969140289303</v>
+        <v>23.728363249878</v>
       </c>
       <c r="S10">
-        <v>0.04373347729306501</v>
+        <v>0.004843465910727099</v>
       </c>
       <c r="T10">
-        <v>0.043733477293065</v>
+        <v>0.004843465910727097</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12.12016933333333</v>
+      </c>
+      <c r="H11">
+        <v>36.360508</v>
+      </c>
+      <c r="I11">
+        <v>0.03854688876420623</v>
+      </c>
+      <c r="J11">
+        <v>0.03854688876420622</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.429146333333333</v>
+      </c>
+      <c r="N11">
+        <v>4.287439</v>
+      </c>
+      <c r="O11">
+        <v>0.82551891942994</v>
+      </c>
+      <c r="P11">
+        <v>0.8255189194299399</v>
+      </c>
+      <c r="Q11">
+        <v>17.32149556211245</v>
+      </c>
+      <c r="R11">
+        <v>155.893460059012</v>
+      </c>
+      <c r="S11">
+        <v>0.03182118596001363</v>
+      </c>
+      <c r="T11">
+        <v>0.03182118596001361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>12.12016933333333</v>
+      </c>
+      <c r="H12">
+        <v>36.360508</v>
+      </c>
+      <c r="I12">
+        <v>0.03854688876420623</v>
+      </c>
+      <c r="J12">
+        <v>0.03854688876420622</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03271033333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.098131</v>
+      </c>
+      <c r="O12">
+        <v>0.01889449554444493</v>
+      </c>
+      <c r="P12">
+        <v>0.01889449554444493</v>
+      </c>
+      <c r="Q12">
+        <v>0.3964547789497778</v>
+      </c>
+      <c r="R12">
+        <v>3.568093010548</v>
+      </c>
+      <c r="S12">
+        <v>0.0007283240180075092</v>
+      </c>
+      <c r="T12">
+        <v>0.0007283240180075088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>55.03884300000001</v>
-      </c>
-      <c r="H11">
-        <v>165.116529</v>
-      </c>
-      <c r="I11">
-        <v>0.1394134407583308</v>
-      </c>
-      <c r="J11">
-        <v>0.1394134407583308</v>
-      </c>
-      <c r="K11">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.12016933333333</v>
+      </c>
+      <c r="H13">
+        <v>36.360508</v>
+      </c>
+      <c r="I13">
+        <v>0.03854688876420623</v>
+      </c>
+      <c r="J13">
+        <v>0.03854688876420622</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="L11">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M11">
-        <v>0.4092033333333334</v>
-      </c>
-      <c r="N11">
-        <v>1.22761</v>
-      </c>
-      <c r="O11">
-        <v>0.6863037232624095</v>
-      </c>
-      <c r="P11">
-        <v>0.6863037232624095</v>
-      </c>
-      <c r="Q11">
-        <v>22.52207801841</v>
-      </c>
-      <c r="R11">
-        <v>202.69870216569</v>
-      </c>
-      <c r="S11">
-        <v>0.09567996346526578</v>
-      </c>
-      <c r="T11">
-        <v>0.09567996346526576</v>
+      <c r="M13">
+        <v>0.269353</v>
+      </c>
+      <c r="N13">
+        <v>0.8080590000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.155586585025615</v>
+      </c>
+      <c r="P13">
+        <v>0.155586585025615</v>
+      </c>
+      <c r="Q13">
+        <v>3.264603970441334</v>
+      </c>
+      <c r="R13">
+        <v>29.381435733972</v>
+      </c>
+      <c r="S13">
+        <v>0.005997378786185098</v>
+      </c>
+      <c r="T13">
+        <v>0.005997378786185096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>16.51773933333333</v>
+      </c>
+      <c r="H14">
+        <v>49.553218</v>
+      </c>
+      <c r="I14">
+        <v>0.0525328849133368</v>
+      </c>
+      <c r="J14">
+        <v>0.05253288491333678</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.429146333333333</v>
+      </c>
+      <c r="N14">
+        <v>4.287439</v>
+      </c>
+      <c r="O14">
+        <v>0.82551891942994</v>
+      </c>
+      <c r="P14">
+        <v>0.8255189194299399</v>
+      </c>
+      <c r="Q14">
+        <v>23.60626660318912</v>
+      </c>
+      <c r="R14">
+        <v>212.456399428702</v>
+      </c>
+      <c r="S14">
+        <v>0.04336689038819519</v>
+      </c>
+      <c r="T14">
+        <v>0.04336689038819518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>16.51773933333333</v>
+      </c>
+      <c r="H15">
+        <v>49.553218</v>
+      </c>
+      <c r="I15">
+        <v>0.0525328849133368</v>
+      </c>
+      <c r="J15">
+        <v>0.05253288491333678</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.03271033333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.098131</v>
+      </c>
+      <c r="O15">
+        <v>0.01889449554444493</v>
+      </c>
+      <c r="P15">
+        <v>0.01889449554444493</v>
+      </c>
+      <c r="Q15">
+        <v>0.5403007595064445</v>
+      </c>
+      <c r="R15">
+        <v>4.862706835558</v>
+      </c>
+      <c r="S15">
+        <v>0.0009925823599318806</v>
+      </c>
+      <c r="T15">
+        <v>0.0009925823599318802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>16.51773933333333</v>
+      </c>
+      <c r="H16">
+        <v>49.553218</v>
+      </c>
+      <c r="I16">
+        <v>0.0525328849133368</v>
+      </c>
+      <c r="J16">
+        <v>0.05253288491333678</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.269353</v>
+      </c>
+      <c r="N16">
+        <v>0.8080590000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.155586585025615</v>
+      </c>
+      <c r="P16">
+        <v>0.155586585025615</v>
+      </c>
+      <c r="Q16">
+        <v>4.449102642651334</v>
+      </c>
+      <c r="R16">
+        <v>40.041923783862</v>
+      </c>
+      <c r="S16">
+        <v>0.008173412165209726</v>
+      </c>
+      <c r="T16">
+        <v>0.008173412165209722</v>
       </c>
     </row>
   </sheetData>
